--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207226.08</v>
+        <v>304598.61</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103613.04</v>
+        <v>101532.87</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162442.84</v>
+        <v>181930.35</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44783.24</v>
+        <v>47564.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75104.00999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,75 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>304598.61</v>
+        <v>181930.35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>165685.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101532.87</v>
+        <v>75104.00999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>74942.10000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181930.35</v>
+        <v>47564.25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49659.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47564.25</v>
+        <v>101532.87</v>
+      </c>
+      <c r="C5" t="n">
+        <v>96762.49000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75104.00999999999</v>
+        <v>304598.61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>290287.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,75 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290287.46</v>
+        <v>165685.73</v>
+      </c>
+      <c r="C2" t="n">
+        <v>160107.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96762.49000000001</v>
+        <v>74942.10000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75167.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165685.73</v>
+        <v>49659.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>37230.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74942.10000000001</v>
+        <v>96762.49000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>90835.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49659.63</v>
+        <v>290287.46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>272505.85</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -480,9 +480,7 @@
       <c r="B4" t="n">
         <v>49659.63</v>
       </c>
-      <c r="C4" t="n">
-        <v>37230.68</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,7 +492,7 @@
         <v>96762.49000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>90835.28</v>
+        <v>117637.59</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +505,7 @@
         <v>290287.46</v>
       </c>
       <c r="C6" t="n">
-        <v>272505.85</v>
+        <v>235275.17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165685.73</v>
+        <v>171389.72</v>
       </c>
       <c r="C2" t="n">
-        <v>160107.87</v>
+        <v>159803.74</v>
       </c>
       <c r="D2" t="n">
-        <v>171693.69</v>
+        <v>187034.38</v>
       </c>
       <c r="E2" t="n">
-        <v>169532.24</v>
+        <v>171153.76</v>
       </c>
       <c r="F2" t="n">
-        <v>163761.68</v>
+        <v>183519.47</v>
       </c>
       <c r="G2" t="n">
-        <v>166234.06</v>
-      </c>
-      <c r="H2" t="n">
-        <v>170846.49</v>
-      </c>
-      <c r="I2" t="n">
-        <v>169311.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>180964.62</v>
-      </c>
-      <c r="K2" t="n">
-        <v>181161.77</v>
-      </c>
-      <c r="L2" t="n">
-        <v>169314.95</v>
-      </c>
-      <c r="M2" t="n">
-        <v>171389.72</v>
+        <v>189427.31</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74942.10000000001</v>
+        <v>75211.88</v>
       </c>
       <c r="C3" t="n">
-        <v>75167.3</v>
+        <v>75054.39</v>
       </c>
       <c r="D3" t="n">
-        <v>75031.46000000001</v>
+        <v>75249.83</v>
       </c>
       <c r="E3" t="n">
-        <v>75121.42999999999</v>
+        <v>75208.83</v>
       </c>
       <c r="F3" t="n">
-        <v>75172.3</v>
+        <v>74844.42</v>
       </c>
       <c r="G3" t="n">
-        <v>75001.78</v>
-      </c>
-      <c r="H3" t="n">
-        <v>75120.31</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75032.72</v>
-      </c>
-      <c r="J3" t="n">
-        <v>74791.12</v>
-      </c>
-      <c r="K3" t="n">
-        <v>74829.95</v>
-      </c>
-      <c r="L3" t="n">
-        <v>74989.84</v>
-      </c>
-      <c r="M3" t="n">
-        <v>75211.88</v>
+        <v>75033.11</v>
       </c>
     </row>
     <row r="4">
@@ -588,38 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49659.63</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>41391.65</v>
+      </c>
+      <c r="C4" t="n">
+        <v>46558.91</v>
+      </c>
       <c r="D4" t="n">
-        <v>39892.38</v>
+        <v>45799.62</v>
       </c>
       <c r="E4" t="n">
-        <v>39577.11</v>
+        <v>49893.98</v>
       </c>
       <c r="F4" t="n">
-        <v>39132.79</v>
+        <v>53971</v>
       </c>
       <c r="G4" t="n">
-        <v>42174.32</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41598.75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41350.07</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44744.23</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44338.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40759.92</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41391.65</v>
+        <v>55618.69</v>
       </c>
     </row>
     <row r="5">
@@ -629,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96762.49000000001</v>
+        <v>95997.75</v>
       </c>
       <c r="C5" t="n">
-        <v>117637.59</v>
+        <v>93805.67999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>95539.17999999999</v>
+        <v>102694.61</v>
       </c>
       <c r="E5" t="n">
-        <v>94743.59</v>
+        <v>98752.19</v>
       </c>
       <c r="F5" t="n">
-        <v>92688.92</v>
+        <v>104111.63</v>
       </c>
       <c r="G5" t="n">
-        <v>94470.05</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95855.17999999999</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95231.50999999999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100166.66</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100110.07</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95021.57000000001</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95997.75</v>
+        <v>106693.04</v>
       </c>
     </row>
     <row r="6">
@@ -672,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>290287.46</v>
+        <v>287993.25</v>
       </c>
       <c r="C6" t="n">
-        <v>235275.17</v>
+        <v>281417.04</v>
       </c>
       <c r="D6" t="n">
-        <v>286617.53</v>
+        <v>308083.83</v>
       </c>
       <c r="E6" t="n">
-        <v>284230.78</v>
+        <v>296256.57</v>
       </c>
       <c r="F6" t="n">
-        <v>278066.77</v>
+        <v>312334.89</v>
       </c>
       <c r="G6" t="n">
-        <v>283410.16</v>
-      </c>
-      <c r="H6" t="n">
-        <v>287565.55</v>
-      </c>
-      <c r="I6" t="n">
-        <v>285694.54</v>
-      </c>
-      <c r="J6" t="n">
-        <v>300499.97</v>
-      </c>
-      <c r="K6" t="n">
-        <v>300330.22</v>
-      </c>
-      <c r="L6" t="n">
-        <v>285064.71</v>
-      </c>
-      <c r="M6" t="n">
-        <v>287993.25</v>
+        <v>320079.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>165685.73</v>
+      </c>
+      <c r="C2" t="n">
+        <v>160107.87</v>
+      </c>
+      <c r="D2" t="n">
+        <v>171693.69</v>
+      </c>
+      <c r="E2" t="n">
+        <v>169532.24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>163761.68</v>
+      </c>
+      <c r="G2" t="n">
+        <v>166234.06</v>
+      </c>
+      <c r="H2" t="n">
+        <v>170846.49</v>
+      </c>
+      <c r="I2" t="n">
+        <v>169311.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>180964.62</v>
+      </c>
+      <c r="K2" t="n">
+        <v>181161.77</v>
+      </c>
+      <c r="L2" t="n">
+        <v>169314.95</v>
+      </c>
+      <c r="M2" t="n">
         <v>171389.72</v>
-      </c>
-      <c r="C2" t="n">
-        <v>159803.74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>187034.38</v>
-      </c>
-      <c r="E2" t="n">
-        <v>171153.76</v>
-      </c>
-      <c r="F2" t="n">
-        <v>183519.47</v>
-      </c>
-      <c r="G2" t="n">
-        <v>189427.31</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>74942.10000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75167.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75031.46000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>75121.42999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75172.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>75001.78</v>
+      </c>
+      <c r="H3" t="n">
+        <v>75120.31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>75032.72</v>
+      </c>
+      <c r="J3" t="n">
+        <v>74791.12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>74829.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>74989.84</v>
+      </c>
+      <c r="M3" t="n">
         <v>75211.88</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75054.39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75249.83</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75208.83</v>
-      </c>
-      <c r="F3" t="n">
-        <v>74844.42</v>
-      </c>
-      <c r="G3" t="n">
-        <v>75033.11</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,38 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>49659.63</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>39892.38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39577.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39132.79</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42174.32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41598.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41350.07</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44744.23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44338.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40759.92</v>
+      </c>
+      <c r="M4" t="n">
         <v>41391.65</v>
-      </c>
-      <c r="C4" t="n">
-        <v>46558.91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45799.62</v>
-      </c>
-      <c r="E4" t="n">
-        <v>49893.98</v>
-      </c>
-      <c r="F4" t="n">
-        <v>53971</v>
-      </c>
-      <c r="G4" t="n">
-        <v>55618.69</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +629,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>96762.49000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>117637.59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95539.17999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>94743.59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92688.92</v>
+      </c>
+      <c r="G5" t="n">
+        <v>94470.05</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95855.17999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95231.50999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100166.66</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100110.07</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95021.57000000001</v>
+      </c>
+      <c r="M5" t="n">
         <v>95997.75</v>
-      </c>
-      <c r="C5" t="n">
-        <v>93805.67999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>102694.61</v>
-      </c>
-      <c r="E5" t="n">
-        <v>98752.19</v>
-      </c>
-      <c r="F5" t="n">
-        <v>104111.63</v>
-      </c>
-      <c r="G5" t="n">
-        <v>106693.04</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +672,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>290287.46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>235275.17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>286617.53</v>
+      </c>
+      <c r="E6" t="n">
+        <v>284230.78</v>
+      </c>
+      <c r="F6" t="n">
+        <v>278066.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>283410.16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>287565.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>285694.54</v>
+      </c>
+      <c r="J6" t="n">
+        <v>300499.97</v>
+      </c>
+      <c r="K6" t="n">
+        <v>300330.22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>285064.71</v>
+      </c>
+      <c r="M6" t="n">
         <v>287993.25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>281417.04</v>
-      </c>
-      <c r="D6" t="n">
-        <v>308083.83</v>
-      </c>
-      <c r="E6" t="n">
-        <v>296256.57</v>
-      </c>
-      <c r="F6" t="n">
-        <v>312334.89</v>
-      </c>
-      <c r="G6" t="n">
-        <v>320079.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165685.73</v>
+        <v>171389.72</v>
       </c>
       <c r="C2" t="n">
-        <v>160107.87</v>
+        <v>159803.74</v>
       </c>
       <c r="D2" t="n">
-        <v>171693.69</v>
+        <v>187034.38</v>
       </c>
       <c r="E2" t="n">
-        <v>169532.24</v>
+        <v>171153.76</v>
       </c>
       <c r="F2" t="n">
-        <v>163761.68</v>
+        <v>183519.47</v>
       </c>
       <c r="G2" t="n">
-        <v>166234.06</v>
+        <v>189427.31</v>
       </c>
       <c r="H2" t="n">
-        <v>170846.49</v>
+        <v>188504.63</v>
       </c>
       <c r="I2" t="n">
-        <v>169311.75</v>
+        <v>182245.65</v>
       </c>
       <c r="J2" t="n">
-        <v>180964.62</v>
+        <v>178635.68</v>
       </c>
       <c r="K2" t="n">
-        <v>181161.77</v>
+        <v>178219.56</v>
       </c>
       <c r="L2" t="n">
-        <v>169314.95</v>
+        <v>182322.22</v>
       </c>
       <c r="M2" t="n">
-        <v>171389.72</v>
+        <v>162455.44</v>
+      </c>
+      <c r="N2" t="n">
+        <v>178686.63</v>
+      </c>
+      <c r="O2" t="n">
+        <v>191798.22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>187075.07</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>157445.44</v>
+      </c>
+      <c r="R2" t="n">
+        <v>166777.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>163059.68</v>
+      </c>
+      <c r="T2" t="n">
+        <v>166418.22</v>
+      </c>
+      <c r="U2" t="n">
+        <v>178740.8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>193972.54</v>
+      </c>
+      <c r="W2" t="n">
+        <v>137121.9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>189289.62</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>182038.99</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>185615.57</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>185118.5</v>
       </c>
     </row>
     <row r="3">
@@ -545,41 +657,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74942.10000000001</v>
+        <v>75211.88</v>
       </c>
       <c r="C3" t="n">
-        <v>75167.3</v>
+        <v>75054.39</v>
       </c>
       <c r="D3" t="n">
-        <v>75031.46000000001</v>
+        <v>75249.83</v>
       </c>
       <c r="E3" t="n">
-        <v>75121.42999999999</v>
+        <v>75208.83</v>
       </c>
       <c r="F3" t="n">
-        <v>75172.3</v>
+        <v>74844.42</v>
       </c>
       <c r="G3" t="n">
-        <v>75001.78</v>
+        <v>75033.11</v>
       </c>
       <c r="H3" t="n">
-        <v>75120.31</v>
+        <v>74749.31</v>
       </c>
       <c r="I3" t="n">
-        <v>75032.72</v>
+        <v>75071.41</v>
       </c>
       <c r="J3" t="n">
-        <v>74791.12</v>
+        <v>75020.46000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>74829.95</v>
+        <v>74767.34</v>
       </c>
       <c r="L3" t="n">
-        <v>74989.84</v>
+        <v>74900.64</v>
       </c>
       <c r="M3" t="n">
-        <v>75211.88</v>
-      </c>
+        <v>75007.55</v>
+      </c>
+      <c r="N3" t="n">
+        <v>74972.42999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>75036.59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>74929.8</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -588,39 +720,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49659.63</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>41391.65</v>
+      </c>
+      <c r="C4" t="n">
+        <v>46558.91</v>
+      </c>
       <c r="D4" t="n">
-        <v>39892.38</v>
+        <v>45799.62</v>
       </c>
       <c r="E4" t="n">
-        <v>39577.11</v>
+        <v>49893.98</v>
       </c>
       <c r="F4" t="n">
-        <v>39132.79</v>
+        <v>53971</v>
       </c>
       <c r="G4" t="n">
-        <v>42174.32</v>
+        <v>55618.69</v>
       </c>
       <c r="H4" t="n">
-        <v>41598.75</v>
+        <v>57061.04</v>
       </c>
       <c r="I4" t="n">
-        <v>41350.07</v>
+        <v>54128.67</v>
       </c>
       <c r="J4" t="n">
-        <v>44744.23</v>
+        <v>52026.31</v>
       </c>
       <c r="K4" t="n">
-        <v>44338.5</v>
+        <v>51671.93</v>
       </c>
       <c r="L4" t="n">
-        <v>40759.92</v>
+        <v>53030</v>
       </c>
       <c r="M4" t="n">
-        <v>41391.65</v>
-      </c>
+        <v>29696.89</v>
+      </c>
+      <c r="N4" t="n">
+        <v>32645.31</v>
+      </c>
+      <c r="O4" t="n">
+        <v>34577.84</v>
+      </c>
+      <c r="P4" t="n">
+        <v>34212.3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>38583.65</v>
+      </c>
+      <c r="R4" t="n">
+        <v>40234.04</v>
+      </c>
+      <c r="S4" t="n">
+        <v>38859.68</v>
+      </c>
+      <c r="T4" t="n">
+        <v>39258.31</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,40 +791,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96762.49000000001</v>
+        <v>95997.75</v>
       </c>
       <c r="C5" t="n">
-        <v>117637.59</v>
+        <v>93805.67999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>95539.17999999999</v>
+        <v>102694.61</v>
       </c>
       <c r="E5" t="n">
-        <v>94743.59</v>
+        <v>98752.19</v>
       </c>
       <c r="F5" t="n">
-        <v>92688.92</v>
+        <v>104111.63</v>
       </c>
       <c r="G5" t="n">
-        <v>94470.05</v>
+        <v>106693.04</v>
       </c>
       <c r="H5" t="n">
-        <v>95855.17999999999</v>
+        <v>106771.66</v>
       </c>
       <c r="I5" t="n">
-        <v>95231.50999999999</v>
+        <v>103815.24</v>
       </c>
       <c r="J5" t="n">
-        <v>100166.66</v>
+        <v>101894.15</v>
       </c>
       <c r="K5" t="n">
-        <v>100110.07</v>
+        <v>101552.94</v>
       </c>
       <c r="L5" t="n">
-        <v>95021.57000000001</v>
+        <v>103417.62</v>
       </c>
       <c r="M5" t="n">
-        <v>95997.75</v>
+        <v>89053.28999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>95434.78999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100470.88</v>
+      </c>
+      <c r="P5" t="n">
+        <v>98739.06</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>98014.53999999999</v>
+      </c>
+      <c r="R5" t="n">
+        <v>103505.74</v>
+      </c>
+      <c r="S5" t="n">
+        <v>100959.68</v>
+      </c>
+      <c r="T5" t="n">
+        <v>102838.26</v>
+      </c>
+      <c r="U5" t="n">
+        <v>178740.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>193972.54</v>
+      </c>
+      <c r="W5" t="n">
+        <v>137121.9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>189289.62</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>182038.99</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>185615.57</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>185118.5</v>
       </c>
     </row>
     <row r="6">
@@ -672,40 +876,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>290287.46</v>
+        <v>287993.25</v>
       </c>
       <c r="C6" t="n">
-        <v>235275.17</v>
+        <v>281417.04</v>
       </c>
       <c r="D6" t="n">
-        <v>286617.53</v>
+        <v>308083.83</v>
       </c>
       <c r="E6" t="n">
-        <v>284230.78</v>
+        <v>296256.57</v>
       </c>
       <c r="F6" t="n">
-        <v>278066.77</v>
+        <v>312334.89</v>
       </c>
       <c r="G6" t="n">
-        <v>283410.16</v>
+        <v>320079.11</v>
       </c>
       <c r="H6" t="n">
-        <v>287565.55</v>
+        <v>320314.98</v>
       </c>
       <c r="I6" t="n">
-        <v>285694.54</v>
+        <v>311445.73</v>
       </c>
       <c r="J6" t="n">
-        <v>300499.97</v>
+        <v>305682.45</v>
       </c>
       <c r="K6" t="n">
-        <v>300330.22</v>
+        <v>304658.83</v>
       </c>
       <c r="L6" t="n">
-        <v>285064.71</v>
+        <v>310252.86</v>
       </c>
       <c r="M6" t="n">
-        <v>287993.25</v>
+        <v>267159.88</v>
+      </c>
+      <c r="N6" t="n">
+        <v>286304.37</v>
+      </c>
+      <c r="O6" t="n">
+        <v>301412.65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>296217.17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>196029.09</v>
+      </c>
+      <c r="R6" t="n">
+        <v>207011.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>201919.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>205676.53</v>
+      </c>
+      <c r="U6" t="n">
+        <v>178740.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>193972.54</v>
+      </c>
+      <c r="W6" t="n">
+        <v>137121.9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>189289.62</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>182038.99</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>185615.57</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>185118.5</v>
       </c>
     </row>
   </sheetData>
